--- a/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/67351593/prediction.xlsx
+++ b/experiments/droptc/sentence/DroPTC-all-mpnet-base-v2-sentence/unfreeze/ce-uniform/67351593/prediction.xlsx
@@ -490,7 +490,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9918318390846252</v>
+        <v>0.8074034452438354</v>
       </c>
     </row>
     <row r="3">
@@ -518,7 +518,7 @@
         <v>1</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="4">
@@ -539,14 +539,14 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.991866409778595</v>
+        <v>0.4604124426841736</v>
       </c>
     </row>
     <row r="5">
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9105251431465149</v>
+        <v>0.4528694152832031</v>
       </c>
     </row>
     <row r="6">
@@ -602,7 +602,7 @@
         <v>1</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9918672442436218</v>
+        <v>0.8083218932151794</v>
       </c>
     </row>
     <row r="7">
@@ -630,7 +630,7 @@
         <v>1</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9918753504753113</v>
+        <v>0.8084549903869629</v>
       </c>
     </row>
     <row r="8">
@@ -658,7 +658,7 @@
         <v>1</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9918528199195862</v>
+        <v>0.8087829947471619</v>
       </c>
     </row>
     <row r="9">
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9918694496154785</v>
+        <v>0.8078226447105408</v>
       </c>
     </row>
     <row r="10">
@@ -714,7 +714,7 @@
         <v>1</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9918528199195862</v>
+        <v>0.8087829947471619</v>
       </c>
     </row>
     <row r="11">
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8933283686637878</v>
+        <v>0.3655934929847717</v>
       </c>
     </row>
     <row r="12">
@@ -770,7 +770,7 @@
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>0.9918620586395264</v>
+        <v>0.8087563514709473</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +798,7 @@
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9631601572036743</v>
+        <v>0.6041239500045776</v>
       </c>
     </row>
     <row r="14">
@@ -826,7 +826,7 @@
         <v>1</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9918617010116577</v>
+        <v>0.8086451888084412</v>
       </c>
     </row>
     <row r="15">
@@ -854,7 +854,7 @@
         <v>1</v>
       </c>
       <c r="F15" t="n">
-        <v>0.991880476474762</v>
+        <v>0.808752179145813</v>
       </c>
     </row>
     <row r="16">
@@ -882,7 +882,7 @@
         <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9918640851974487</v>
+        <v>0.80832839012146</v>
       </c>
     </row>
     <row r="17">
@@ -910,7 +910,7 @@
         <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9918895363807678</v>
+        <v>0.808371901512146</v>
       </c>
     </row>
     <row r="18">
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
       <c r="F18" t="n">
-        <v>0.5046830177307129</v>
+        <v>0.2469085454940796</v>
       </c>
     </row>
     <row r="19">
@@ -966,7 +966,7 @@
         <v>1</v>
       </c>
       <c r="F19" t="n">
-        <v>0.991888701915741</v>
+        <v>0.8085399270057678</v>
       </c>
     </row>
     <row r="20">
@@ -994,7 +994,7 @@
         <v>1</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9918639659881592</v>
+        <v>0.8083863258361816</v>
       </c>
     </row>
     <row r="21">
@@ -1022,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="F21" t="n">
-        <v>0.9918712377548218</v>
+        <v>0.8086382150650024</v>
       </c>
     </row>
     <row r="22">
@@ -1050,7 +1050,7 @@
         <v>1</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9918571710586548</v>
+        <v>0.8087529540061951</v>
       </c>
     </row>
     <row r="23">
@@ -1078,7 +1078,7 @@
         <v>1</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9918748736381531</v>
+        <v>0.8085554838180542</v>
       </c>
     </row>
     <row r="24">
@@ -1106,7 +1106,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="n">
-        <v>0.991879403591156</v>
+        <v>0.8086757063865662</v>
       </c>
     </row>
     <row r="25">
@@ -1134,7 +1134,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9104885458946228</v>
+        <v>0.45157790184021</v>
       </c>
     </row>
     <row r="26">
@@ -1162,7 +1162,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="n">
-        <v>0.5040479302406311</v>
+        <v>0.2473171502351761</v>
       </c>
     </row>
     <row r="27">
@@ -1190,7 +1190,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="n">
-        <v>0.9918782711029053</v>
+        <v>0.8086575269699097</v>
       </c>
     </row>
     <row r="28">
@@ -1218,7 +1218,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="29">
@@ -1246,7 +1246,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="n">
-        <v>0.9918661713600159</v>
+        <v>0.8087259531021118</v>
       </c>
     </row>
     <row r="30">
@@ -1274,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="n">
-        <v>0.9918835163116455</v>
+        <v>0.8083292245864868</v>
       </c>
     </row>
     <row r="31">
@@ -1302,7 +1302,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="n">
-        <v>0.9918615818023682</v>
+        <v>0.8080964088439941</v>
       </c>
     </row>
     <row r="32">
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="n">
-        <v>0.9918718338012695</v>
+        <v>0.8085123300552368</v>
       </c>
     </row>
     <row r="33">
@@ -1358,7 +1358,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="n">
-        <v>0.9451583027839661</v>
+        <v>0.4665544629096985</v>
       </c>
     </row>
     <row r="34">
@@ -1386,7 +1386,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="n">
-        <v>0.9630722999572754</v>
+        <v>0.6044350862503052</v>
       </c>
     </row>
     <row r="35">
@@ -1414,7 +1414,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="n">
-        <v>0.9630143642425537</v>
+        <v>0.6025092005729675</v>
       </c>
     </row>
     <row r="36">
@@ -1442,7 +1442,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="n">
-        <v>0.9918767213821411</v>
+        <v>0.8085135817527771</v>
       </c>
     </row>
     <row r="37">
@@ -1470,7 +1470,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="n">
-        <v>0.9631080031394958</v>
+        <v>0.6040437817573547</v>
       </c>
     </row>
     <row r="38">
@@ -1498,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="n">
-        <v>0.9918694496154785</v>
+        <v>0.8087190985679626</v>
       </c>
     </row>
     <row r="39">
@@ -1526,7 +1526,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="n">
-        <v>0.9491415619850159</v>
+        <v>0.5997239947319031</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.9449343085289001</v>
+        <v>0.4649533331394196</v>
       </c>
     </row>
     <row r="41">
@@ -1582,7 +1582,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="n">
-        <v>0.9918376803398132</v>
+        <v>0.8087307810783386</v>
       </c>
     </row>
     <row r="42">
@@ -1610,7 +1610,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8241665959358215</v>
+        <v>0.6009507775306702</v>
       </c>
     </row>
     <row r="43">
@@ -1638,7 +1638,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="n">
-        <v>0.9450057148933411</v>
+        <v>0.4656725227832794</v>
       </c>
     </row>
     <row r="44">
@@ -1666,7 +1666,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="n">
-        <v>0.9630918502807617</v>
+        <v>0.6030116677284241</v>
       </c>
     </row>
     <row r="45">
@@ -1694,7 +1694,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="n">
-        <v>0.94496750831604</v>
+        <v>0.465436577796936</v>
       </c>
     </row>
     <row r="46">
@@ -1722,7 +1722,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="n">
-        <v>0.9446814656257629</v>
+        <v>0.4667354226112366</v>
       </c>
     </row>
     <row r="47">
@@ -1750,7 +1750,7 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.9098281264305115</v>
+        <v>0.4472270011901855</v>
       </c>
     </row>
     <row r="48">
@@ -1778,7 +1778,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9444811940193176</v>
+        <v>0.4666053056716919</v>
       </c>
     </row>
     <row r="49">
@@ -1806,7 +1806,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9918572902679443</v>
+        <v>0.80878084897995</v>
       </c>
     </row>
     <row r="50">
@@ -1834,7 +1834,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9445963501930237</v>
+        <v>0.4649125039577484</v>
       </c>
     </row>
     <row r="51">
@@ -1862,7 +1862,7 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>0.9441896677017212</v>
+        <v>0.4651573300361633</v>
       </c>
     </row>
     <row r="52">
@@ -1890,7 +1890,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="n">
-        <v>0.9918599724769592</v>
+        <v>0.8079373836517334</v>
       </c>
     </row>
     <row r="53">
@@ -1918,7 +1918,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9445963501930237</v>
+        <v>0.4649125039577484</v>
       </c>
     </row>
     <row r="54">
@@ -1946,7 +1946,7 @@
         <v>0</v>
       </c>
       <c r="F54" t="n">
-        <v>0.9445377588272095</v>
+        <v>0.4645431637763977</v>
       </c>
     </row>
     <row r="55">
@@ -1974,7 +1974,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="n">
-        <v>0.9918702840805054</v>
+        <v>0.8084641695022583</v>
       </c>
     </row>
     <row r="56">
@@ -2002,7 +2002,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="n">
-        <v>0.9918709993362427</v>
+        <v>0.8087722659111023</v>
       </c>
     </row>
     <row r="57">
@@ -2030,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="n">
-        <v>0.9918815493583679</v>
+        <v>0.8087190985679626</v>
       </c>
     </row>
     <row r="58">
@@ -2058,7 +2058,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="n">
-        <v>0.963167130947113</v>
+        <v>0.6036141514778137</v>
       </c>
     </row>
     <row r="59">
@@ -2086,7 +2086,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="n">
-        <v>0.9918292164802551</v>
+        <v>0.8085823655128479</v>
       </c>
     </row>
     <row r="60">
@@ -2114,7 +2114,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="n">
-        <v>0.9918621778488159</v>
+        <v>0.8081340789794922</v>
       </c>
     </row>
     <row r="61">
@@ -2142,7 +2142,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="n">
-        <v>0.9918667674064636</v>
+        <v>0.8087160587310791</v>
       </c>
     </row>
     <row r="62">
@@ -2170,7 +2170,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="n">
-        <v>0.9918792843818665</v>
+        <v>0.8086722493171692</v>
       </c>
     </row>
     <row r="63">
@@ -2198,7 +2198,7 @@
         <v>1</v>
       </c>
       <c r="F63" t="n">
-        <v>0.9631533026695251</v>
+        <v>0.6029165387153625</v>
       </c>
     </row>
     <row r="64">
@@ -2219,14 +2219,14 @@
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8805022239685059</v>
+        <v>0.6040381789207458</v>
       </c>
     </row>
     <row r="65">
@@ -2254,7 +2254,7 @@
         <v>1</v>
       </c>
       <c r="F65" t="n">
-        <v>0.9631310105323792</v>
+        <v>0.6023818254470825</v>
       </c>
     </row>
     <row r="66">
@@ -2282,7 +2282,7 @@
         <v>1</v>
       </c>
       <c r="F66" t="n">
-        <v>0.9631310105323792</v>
+        <v>0.6023818254470825</v>
       </c>
     </row>
     <row r="67">
@@ -2310,7 +2310,7 @@
         <v>1</v>
       </c>
       <c r="F67" t="n">
-        <v>0.9631695747375488</v>
+        <v>0.6030713319778442</v>
       </c>
     </row>
     <row r="68">
@@ -2338,7 +2338,7 @@
         <v>1</v>
       </c>
       <c r="F68" t="n">
-        <v>0.9631310105323792</v>
+        <v>0.6023818254470825</v>
       </c>
     </row>
     <row r="69">
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="F69" t="n">
-        <v>0.9324884414672852</v>
+        <v>0.372960239648819</v>
       </c>
     </row>
     <row r="70">
@@ -2394,7 +2394,7 @@
         <v>1</v>
       </c>
       <c r="F70" t="n">
-        <v>0.9918864369392395</v>
+        <v>0.8084651827812195</v>
       </c>
     </row>
     <row r="71">
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>0.9627255797386169</v>
+        <v>0.6041478514671326</v>
       </c>
     </row>
     <row r="72">
@@ -2450,7 +2450,7 @@
         <v>1</v>
       </c>
       <c r="F72" t="n">
-        <v>0.9918558597564697</v>
+        <v>0.8074765801429749</v>
       </c>
     </row>
     <row r="73">
@@ -2478,7 +2478,7 @@
         <v>1</v>
       </c>
       <c r="F73" t="n">
-        <v>0.9631093144416809</v>
+        <v>0.6039033532142639</v>
       </c>
     </row>
     <row r="74">
@@ -2506,7 +2506,7 @@
         <v>1</v>
       </c>
       <c r="F74" t="n">
-        <v>0.991865336894989</v>
+        <v>0.8087425231933594</v>
       </c>
     </row>
     <row r="75">
@@ -2534,7 +2534,7 @@
         <v>1</v>
       </c>
       <c r="F75" t="n">
-        <v>0.9918767213821411</v>
+        <v>0.8083616495132446</v>
       </c>
     </row>
     <row r="76">
@@ -2562,7 +2562,7 @@
         <v>1</v>
       </c>
       <c r="F76" t="n">
-        <v>0.9631093144416809</v>
+        <v>0.6039033532142639</v>
       </c>
     </row>
     <row r="77">
@@ -2590,7 +2590,7 @@
         <v>1</v>
       </c>
       <c r="F77" t="n">
-        <v>0.9918599724769592</v>
+        <v>0.8081293106079102</v>
       </c>
     </row>
     <row r="78">
@@ -2618,7 +2618,7 @@
         <v>1</v>
       </c>
       <c r="F78" t="n">
-        <v>0.9631093144416809</v>
+        <v>0.6039033532142639</v>
       </c>
     </row>
     <row r="79">
@@ -2646,7 +2646,7 @@
         <v>1</v>
       </c>
       <c r="F79" t="n">
-        <v>0.9918680787086487</v>
+        <v>0.8085777759552002</v>
       </c>
     </row>
     <row r="80">
@@ -2674,7 +2674,7 @@
         <v>1</v>
       </c>
       <c r="F80" t="n">
-        <v>0.9631224870681763</v>
+        <v>0.6039658784866333</v>
       </c>
     </row>
     <row r="81">
@@ -2702,7 +2702,7 @@
         <v>1</v>
       </c>
       <c r="F81" t="n">
-        <v>0.9918596148490906</v>
+        <v>0.8081142902374268</v>
       </c>
     </row>
     <row r="82">
@@ -2730,7 +2730,7 @@
         <v>1</v>
       </c>
       <c r="F82" t="n">
-        <v>0.9631224870681763</v>
+        <v>0.6039658784866333</v>
       </c>
     </row>
     <row r="83">
@@ -2758,7 +2758,7 @@
         <v>1</v>
       </c>
       <c r="F83" t="n">
-        <v>0.991862416267395</v>
+        <v>0.808523952960968</v>
       </c>
     </row>
     <row r="84">
@@ -2786,7 +2786,7 @@
         <v>1</v>
       </c>
       <c r="F84" t="n">
-        <v>0.991862416267395</v>
+        <v>0.808523952960968</v>
       </c>
     </row>
     <row r="85">
@@ -2814,7 +2814,7 @@
         <v>1</v>
       </c>
       <c r="F85" t="n">
-        <v>0.9918437600135803</v>
+        <v>0.8087515234947205</v>
       </c>
     </row>
     <row r="86">
@@ -2842,7 +2842,7 @@
         <v>1</v>
       </c>
       <c r="F86" t="n">
-        <v>0.9631403088569641</v>
+        <v>0.6038299202919006</v>
       </c>
     </row>
     <row r="87">
@@ -2870,7 +2870,7 @@
         <v>1</v>
       </c>
       <c r="F87" t="n">
-        <v>0.9897580146789551</v>
+        <v>0.8081305027008057</v>
       </c>
     </row>
     <row r="88">
@@ -2898,7 +2898,7 @@
         <v>1</v>
       </c>
       <c r="F88" t="n">
-        <v>0.9631368517875671</v>
+        <v>0.6037400960922241</v>
       </c>
     </row>
     <row r="89">
@@ -2926,7 +2926,7 @@
         <v>1</v>
       </c>
       <c r="F89" t="n">
-        <v>0.9918712377548218</v>
+        <v>0.8081112504005432</v>
       </c>
     </row>
     <row r="90">
@@ -2954,7 +2954,7 @@
         <v>1</v>
       </c>
       <c r="F90" t="n">
-        <v>0.9918620586395264</v>
+        <v>0.8087810277938843</v>
       </c>
     </row>
     <row r="91">
@@ -2982,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="F91" t="n">
-        <v>0.9918615818023682</v>
+        <v>0.8087843656539917</v>
       </c>
     </row>
     <row r="92">
@@ -3010,7 +3010,7 @@
         <v>1</v>
       </c>
       <c r="F92" t="n">
-        <v>0.991862416267395</v>
+        <v>0.808789074420929</v>
       </c>
     </row>
     <row r="93">
@@ -3038,7 +3038,7 @@
         <v>1</v>
       </c>
       <c r="F93" t="n">
-        <v>0.9918625354766846</v>
+        <v>0.8087820410728455</v>
       </c>
     </row>
     <row r="94">
@@ -3066,7 +3066,7 @@
         <v>1</v>
       </c>
       <c r="F94" t="n">
-        <v>0.9918615818023682</v>
+        <v>0.8087751865386963</v>
       </c>
     </row>
     <row r="95">
@@ -3094,7 +3094,7 @@
         <v>1</v>
       </c>
       <c r="F95" t="n">
-        <v>0.9918618202209473</v>
+        <v>0.8087769150733948</v>
       </c>
     </row>
     <row r="96">
@@ -3122,7 +3122,7 @@
         <v>1</v>
       </c>
       <c r="F96" t="n">
-        <v>0.9918769598007202</v>
+        <v>0.8087511658668518</v>
       </c>
     </row>
     <row r="97">
@@ -3150,7 +3150,7 @@
         <v>1</v>
       </c>
       <c r="F97" t="n">
-        <v>0.6398478746414185</v>
+        <v>0.3492793440818787</v>
       </c>
     </row>
     <row r="98">
@@ -3178,7 +3178,7 @@
         <v>1</v>
       </c>
       <c r="F98" t="n">
-        <v>0.9918699264526367</v>
+        <v>0.8088165521621704</v>
       </c>
     </row>
     <row r="99">
@@ -3206,7 +3206,7 @@
         <v>1</v>
       </c>
       <c r="F99" t="n">
-        <v>0.9692250490188599</v>
+        <v>0.808060884475708</v>
       </c>
     </row>
     <row r="100">
@@ -3234,7 +3234,7 @@
         <v>1</v>
       </c>
       <c r="F100" t="n">
-        <v>0.991870641708374</v>
+        <v>0.8086557388305664</v>
       </c>
     </row>
     <row r="101">
@@ -3262,7 +3262,7 @@
         <v>1</v>
       </c>
       <c r="F101" t="n">
-        <v>0.9918636083602905</v>
+        <v>0.8085668683052063</v>
       </c>
     </row>
     <row r="102">
@@ -3290,7 +3290,7 @@
         <v>1</v>
       </c>
       <c r="F102" t="n">
-        <v>0.9094958901405334</v>
+        <v>0.4513813257217407</v>
       </c>
     </row>
     <row r="103">
@@ -3311,14 +3311,14 @@
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>SoftwareFault</t>
         </is>
       </c>
       <c r="E103" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F103" t="n">
-        <v>0.991671085357666</v>
+        <v>0.4687953889369965</v>
       </c>
     </row>
     <row r="104">
@@ -3346,7 +3346,7 @@
         <v>1</v>
       </c>
       <c r="F104" t="n">
-        <v>0.9918862581253052</v>
+        <v>0.8082775473594666</v>
       </c>
     </row>
     <row r="105">
@@ -3374,7 +3374,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="n">
-        <v>0.9329675436019897</v>
+        <v>0.3732896447181702</v>
       </c>
     </row>
     <row r="106">
@@ -3402,7 +3402,7 @@
         <v>1</v>
       </c>
       <c r="F106" t="n">
-        <v>0.99187171459198</v>
+        <v>0.8086644411087036</v>
       </c>
     </row>
     <row r="107">
@@ -3430,7 +3430,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="n">
-        <v>0.9449731707572937</v>
+        <v>0.4653957784175873</v>
       </c>
     </row>
     <row r="108">
@@ -3458,7 +3458,7 @@
         <v>1</v>
       </c>
       <c r="F108" t="n">
-        <v>0.9096035957336426</v>
+        <v>0.4521169662475586</v>
       </c>
     </row>
     <row r="109">
@@ -3486,7 +3486,7 @@
         <v>1</v>
       </c>
       <c r="F109" t="n">
-        <v>0.9918828010559082</v>
+        <v>0.8086870908737183</v>
       </c>
     </row>
     <row r="110">
@@ -3514,7 +3514,7 @@
         <v>1</v>
       </c>
       <c r="F110" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="111">
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="F111" t="n">
-        <v>0.9452081322669983</v>
+        <v>0.4660062789916992</v>
       </c>
     </row>
     <row r="112">
@@ -3570,7 +3570,7 @@
         <v>1</v>
       </c>
       <c r="F112" t="n">
-        <v>0.9449325203895569</v>
+        <v>0.4657602310180664</v>
       </c>
     </row>
     <row r="113">
@@ -3598,7 +3598,7 @@
         <v>1</v>
       </c>
       <c r="F113" t="n">
-        <v>0.963114857673645</v>
+        <v>0.6043266654014587</v>
       </c>
     </row>
     <row r="114">
@@ -3626,7 +3626,7 @@
         <v>1</v>
       </c>
       <c r="F114" t="n">
-        <v>0.9918753504753113</v>
+        <v>0.8086979985237122</v>
       </c>
     </row>
     <row r="115">
@@ -3654,7 +3654,7 @@
         <v>1</v>
       </c>
       <c r="F115" t="n">
-        <v>0.9631669521331787</v>
+        <v>0.6041593551635742</v>
       </c>
     </row>
     <row r="116">
@@ -3682,7 +3682,7 @@
         <v>1</v>
       </c>
       <c r="F116" t="n">
-        <v>0.9918668866157532</v>
+        <v>0.808526337146759</v>
       </c>
     </row>
     <row r="117">
@@ -3710,7 +3710,7 @@
         <v>1</v>
       </c>
       <c r="F117" t="n">
-        <v>0.9918636083602905</v>
+        <v>0.8086466789245605</v>
       </c>
     </row>
     <row r="118">
@@ -3731,14 +3731,14 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>SurroundingEnvironment</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E118" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F118" t="n">
-        <v>0.9207875728607178</v>
+        <v>0.4043584167957306</v>
       </c>
     </row>
     <row r="119">
@@ -3766,7 +3766,7 @@
         <v>1</v>
       </c>
       <c r="F119" t="n">
-        <v>0.9918751120567322</v>
+        <v>0.8087340593338013</v>
       </c>
     </row>
     <row r="120">
@@ -3794,7 +3794,7 @@
         <v>1</v>
       </c>
       <c r="F120" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="121">
@@ -3822,7 +3822,7 @@
         <v>1</v>
       </c>
       <c r="F121" t="n">
-        <v>0.9325461387634277</v>
+        <v>0.3731414377689362</v>
       </c>
     </row>
     <row r="122">
@@ -3850,7 +3850,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="n">
-        <v>0.991826057434082</v>
+        <v>0.8088589906692505</v>
       </c>
     </row>
     <row r="123">
@@ -3878,7 +3878,7 @@
         <v>1</v>
       </c>
       <c r="F123" t="n">
-        <v>0.9325461387634277</v>
+        <v>0.3731414377689362</v>
       </c>
     </row>
     <row r="124">
@@ -3906,7 +3906,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="n">
-        <v>0.991826057434082</v>
+        <v>0.8088589906692505</v>
       </c>
     </row>
     <row r="125">
@@ -3934,7 +3934,7 @@
         <v>1</v>
       </c>
       <c r="F125" t="n">
-        <v>0.9325461387634277</v>
+        <v>0.3731414377689362</v>
       </c>
     </row>
     <row r="126">
@@ -3962,7 +3962,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="n">
-        <v>0.991828978061676</v>
+        <v>0.8088102340698242</v>
       </c>
     </row>
     <row r="127">
@@ -3990,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.4828912019729614</v>
+        <v>0.4463083446025848</v>
       </c>
     </row>
     <row r="128">
@@ -4018,7 +4018,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="129">
@@ -4046,7 +4046,7 @@
         <v>1</v>
       </c>
       <c r="F129" t="n">
-        <v>0.9917967319488525</v>
+        <v>0.8083979487419128</v>
       </c>
     </row>
     <row r="130">
@@ -4074,7 +4074,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="n">
-        <v>0.9918796420097351</v>
+        <v>0.8085604310035706</v>
       </c>
     </row>
     <row r="131">
@@ -4102,7 +4102,7 @@
         <v>1</v>
       </c>
       <c r="F131" t="n">
-        <v>0.9918715953826904</v>
+        <v>0.8086271286010742</v>
       </c>
     </row>
     <row r="132">
@@ -4130,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="F132" t="n">
-        <v>0.9436140656471252</v>
+        <v>0.4623499810695648</v>
       </c>
     </row>
     <row r="133">
@@ -4158,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="F133" t="n">
-        <v>0.9918819069862366</v>
+        <v>0.8083712458610535</v>
       </c>
     </row>
     <row r="134">
@@ -4186,7 +4186,7 @@
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>0.9918728470802307</v>
+        <v>0.8087896108627319</v>
       </c>
     </row>
     <row r="135">
@@ -4214,7 +4214,7 @@
         <v>1</v>
       </c>
       <c r="F135" t="n">
-        <v>0.9918753504753113</v>
+        <v>0.8084888458251953</v>
       </c>
     </row>
     <row r="136">
@@ -4242,7 +4242,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="n">
-        <v>0.9917417764663696</v>
+        <v>0.4436936676502228</v>
       </c>
     </row>
     <row r="137">
@@ -4270,7 +4270,7 @@
         <v>1</v>
       </c>
       <c r="F137" t="n">
-        <v>0.9918832778930664</v>
+        <v>0.8083468675613403</v>
       </c>
     </row>
     <row r="138">
@@ -4298,7 +4298,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="n">
-        <v>0.9918587803840637</v>
+        <v>0.8086092472076416</v>
       </c>
     </row>
     <row r="139">
@@ -4326,7 +4326,7 @@
         <v>1</v>
       </c>
       <c r="F139" t="n">
-        <v>0.9918600916862488</v>
+        <v>0.8086145520210266</v>
       </c>
     </row>
     <row r="140">
@@ -4354,7 +4354,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="n">
-        <v>0.9918774366378784</v>
+        <v>0.8081179857254028</v>
       </c>
     </row>
     <row r="141">
@@ -4375,14 +4375,14 @@
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>Normal</t>
+          <t>ParamViolation</t>
         </is>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>0.9674994349479675</v>
+        <v>0.438726544380188</v>
       </c>
     </row>
     <row r="142">
@@ -4410,7 +4410,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="143">
@@ -4438,7 +4438,7 @@
         <v>1</v>
       </c>
       <c r="F143" t="n">
-        <v>0.9630927443504333</v>
+        <v>0.6037020087242126</v>
       </c>
     </row>
     <row r="144">
@@ -4466,7 +4466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="n">
-        <v>0.9918679594993591</v>
+        <v>0.8087965250015259</v>
       </c>
     </row>
     <row r="145">
@@ -4494,7 +4494,7 @@
         <v>1</v>
       </c>
       <c r="F145" t="n">
-        <v>0.9630927443504333</v>
+        <v>0.6037020087242126</v>
       </c>
     </row>
     <row r="146">
@@ -4522,7 +4522,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="n">
-        <v>0.9918571710586548</v>
+        <v>0.8085112571716309</v>
       </c>
     </row>
     <row r="147">
@@ -4550,7 +4550,7 @@
         <v>1</v>
       </c>
       <c r="F147" t="n">
-        <v>0.9324884414672852</v>
+        <v>0.372960239648819</v>
       </c>
     </row>
     <row r="148">
@@ -4578,7 +4578,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="n">
-        <v>0.9918774366378784</v>
+        <v>0.8086469173431396</v>
       </c>
     </row>
     <row r="149">
@@ -4606,7 +4606,7 @@
         <v>1</v>
       </c>
       <c r="F149" t="n">
-        <v>0.9630825519561768</v>
+        <v>0.6032314896583557</v>
       </c>
     </row>
     <row r="150">
@@ -4634,7 +4634,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="n">
-        <v>0.9323654174804688</v>
+        <v>0.374218076467514</v>
       </c>
     </row>
     <row r="151">
@@ -4662,7 +4662,7 @@
         <v>1</v>
       </c>
       <c r="F151" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="152">
@@ -4690,7 +4690,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="n">
-        <v>0.9072988033294678</v>
+        <v>0.451917976140976</v>
       </c>
     </row>
     <row r="153">
@@ -4718,7 +4718,7 @@
         <v>1</v>
       </c>
       <c r="F153" t="n">
-        <v>0.9918702840805054</v>
+        <v>0.8087033033370972</v>
       </c>
     </row>
     <row r="154">
@@ -4746,7 +4746,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="n">
-        <v>0.9095498323440552</v>
+        <v>0.4525838792324066</v>
       </c>
     </row>
     <row r="155">
@@ -4774,7 +4774,7 @@
         <v>1</v>
       </c>
       <c r="F155" t="n">
-        <v>0.9918769598007202</v>
+        <v>0.8086743354797363</v>
       </c>
     </row>
     <row r="156">
@@ -4802,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="n">
-        <v>0.9094095230102539</v>
+        <v>0.4526282250881195</v>
       </c>
     </row>
     <row r="157">
@@ -4830,7 +4830,7 @@
         <v>1</v>
       </c>
       <c r="F157" t="n">
-        <v>0.9918633699417114</v>
+        <v>0.8088200092315674</v>
       </c>
     </row>
     <row r="158">
@@ -4858,7 +4858,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="n">
-        <v>0.9094559550285339</v>
+        <v>0.4525626003742218</v>
       </c>
     </row>
     <row r="159">
@@ -4886,7 +4886,7 @@
         <v>1</v>
       </c>
       <c r="F159" t="n">
-        <v>0.9918668866157532</v>
+        <v>0.808756947517395</v>
       </c>
     </row>
     <row r="160">
@@ -4914,7 +4914,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="n">
-        <v>0.9632035493850708</v>
+        <v>0.6041791439056396</v>
       </c>
     </row>
     <row r="161">
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="F161" t="n">
-        <v>0.9918860197067261</v>
+        <v>0.8086749911308289</v>
       </c>
     </row>
     <row r="162">
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="F162" t="n">
-        <v>0.991772472858429</v>
+        <v>0.7714859247207642</v>
       </c>
     </row>
     <row r="163">
@@ -4998,7 +4998,7 @@
         <v>1</v>
       </c>
       <c r="F163" t="n">
-        <v>0.9918504357337952</v>
+        <v>0.8086428046226501</v>
       </c>
     </row>
     <row r="164">
@@ -5026,7 +5026,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="n">
-        <v>0.9630572199821472</v>
+        <v>0.603605329990387</v>
       </c>
     </row>
     <row r="165">
@@ -5054,7 +5054,7 @@
         <v>1</v>
       </c>
       <c r="F165" t="n">
-        <v>0.9918756484985352</v>
+        <v>0.8087447881698608</v>
       </c>
     </row>
     <row r="166">
@@ -5082,7 +5082,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="n">
-        <v>0.9918122291564941</v>
+        <v>0.808553159236908</v>
       </c>
     </row>
     <row r="167">
@@ -5110,7 +5110,7 @@
         <v>1</v>
       </c>
       <c r="F167" t="n">
-        <v>0.9440830945968628</v>
+        <v>0.4656229913234711</v>
       </c>
     </row>
     <row r="168">
@@ -5138,7 +5138,7 @@
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>0.9630980491638184</v>
+        <v>0.6046066880226135</v>
       </c>
     </row>
     <row r="169">
@@ -5166,7 +5166,7 @@
         <v>1</v>
       </c>
       <c r="F169" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="170">
@@ -5194,7 +5194,7 @@
         <v>1</v>
       </c>
       <c r="F170" t="n">
-        <v>0.9440830945968628</v>
+        <v>0.4656229913234711</v>
       </c>
     </row>
     <row r="171">
@@ -5222,7 +5222,7 @@
         <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>0.9631111025810242</v>
+        <v>0.6042661070823669</v>
       </c>
     </row>
     <row r="172">
@@ -5250,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="F172" t="n">
-        <v>0.9918698072433472</v>
+        <v>0.8080882430076599</v>
       </c>
     </row>
     <row r="173">
@@ -5278,7 +5278,7 @@
         <v>1</v>
       </c>
       <c r="F173" t="n">
-        <v>0.9918734431266785</v>
+        <v>0.8085744976997375</v>
       </c>
     </row>
     <row r="174">
@@ -5306,7 +5306,7 @@
         <v>1</v>
       </c>
       <c r="F174" t="n">
-        <v>0.9918588995933533</v>
+        <v>0.8086251020431519</v>
       </c>
     </row>
     <row r="175">
@@ -5334,7 +5334,7 @@
         <v>1</v>
       </c>
       <c r="F175" t="n">
-        <v>0.9918734431266785</v>
+        <v>0.8085744976997375</v>
       </c>
     </row>
     <row r="176">
@@ -5362,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="F176" t="n">
-        <v>0.9918734431266785</v>
+        <v>0.8085744976997375</v>
       </c>
     </row>
     <row r="177">
@@ -5390,7 +5390,7 @@
         <v>1</v>
       </c>
       <c r="F177" t="n">
-        <v>0.9918588995933533</v>
+        <v>0.8086251020431519</v>
       </c>
     </row>
     <row r="178">
@@ -5418,7 +5418,7 @@
         <v>1</v>
       </c>
       <c r="F178" t="n">
-        <v>0.9918797612190247</v>
+        <v>0.8085249662399292</v>
       </c>
     </row>
     <row r="179">
@@ -5446,7 +5446,7 @@
         <v>1</v>
       </c>
       <c r="F179" t="n">
-        <v>0.9918320775032043</v>
+        <v>0.8075355291366577</v>
       </c>
     </row>
     <row r="180">
@@ -5474,7 +5474,7 @@
         <v>1</v>
       </c>
       <c r="F180" t="n">
-        <v>0.9918707609176636</v>
+        <v>0.8083592057228088</v>
       </c>
     </row>
     <row r="181">
@@ -5502,7 +5502,7 @@
         <v>1</v>
       </c>
       <c r="F181" t="n">
-        <v>0.9918617010116577</v>
+        <v>0.8086187839508057</v>
       </c>
     </row>
     <row r="182">
@@ -5530,7 +5530,7 @@
         <v>1</v>
       </c>
       <c r="F182" t="n">
-        <v>0.9918899536132812</v>
+        <v>0.8085110187530518</v>
       </c>
     </row>
     <row r="183">
@@ -5558,7 +5558,7 @@
         <v>1</v>
       </c>
       <c r="F183" t="n">
-        <v>0.932658851146698</v>
+        <v>0.3732796609401703</v>
       </c>
     </row>
     <row r="184">
@@ -5586,7 +5586,7 @@
         <v>1</v>
       </c>
       <c r="F184" t="n">
-        <v>0.9918807148933411</v>
+        <v>0.8086681962013245</v>
       </c>
     </row>
     <row r="185">
@@ -5614,7 +5614,7 @@
         <v>1</v>
       </c>
       <c r="F185" t="n">
-        <v>0.9918656945228577</v>
+        <v>0.8086968660354614</v>
       </c>
     </row>
     <row r="186">
@@ -5642,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="F186" t="n">
-        <v>0.9918585419654846</v>
+        <v>0.8087787628173828</v>
       </c>
     </row>
     <row r="187">
@@ -5670,7 +5670,7 @@
         <v>1</v>
       </c>
       <c r="F187" t="n">
-        <v>0.9918702840805054</v>
+        <v>0.8087875843048096</v>
       </c>
     </row>
     <row r="188">
@@ -5698,7 +5698,7 @@
         <v>1</v>
       </c>
       <c r="F188" t="n">
-        <v>0.9918650984764099</v>
+        <v>0.808742344379425</v>
       </c>
     </row>
     <row r="189">
@@ -5726,7 +5726,7 @@
         <v>1</v>
       </c>
       <c r="F189" t="n">
-        <v>0.9918571710586548</v>
+        <v>0.8085992932319641</v>
       </c>
     </row>
     <row r="190">
@@ -5754,7 +5754,7 @@
         <v>1</v>
       </c>
       <c r="F190" t="n">
-        <v>0.9918562173843384</v>
+        <v>0.8086883425712585</v>
       </c>
     </row>
     <row r="191">
@@ -5782,7 +5782,7 @@
         <v>1</v>
       </c>
       <c r="F191" t="n">
-        <v>0.6337009072303772</v>
+        <v>0.3505100607872009</v>
       </c>
     </row>
     <row r="192">
@@ -5810,7 +5810,7 @@
         <v>1</v>
       </c>
       <c r="F192" t="n">
-        <v>0.9918822646141052</v>
+        <v>0.8085306882858276</v>
       </c>
     </row>
     <row r="193">
@@ -5838,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="F193" t="n">
-        <v>0.9918687343597412</v>
+        <v>0.8083550930023193</v>
       </c>
     </row>
     <row r="194">
@@ -5866,7 +5866,7 @@
         <v>1</v>
       </c>
       <c r="F194" t="n">
-        <v>0.9326021671295166</v>
+        <v>0.3733456432819366</v>
       </c>
     </row>
     <row r="195">
@@ -5894,7 +5894,7 @@
         <v>1</v>
       </c>
       <c r="F195" t="n">
-        <v>0.9448986649513245</v>
+        <v>0.4662675261497498</v>
       </c>
     </row>
     <row r="196">
@@ -5922,7 +5922,7 @@
         <v>1</v>
       </c>
       <c r="F196" t="n">
-        <v>0.99187171459198</v>
+        <v>0.8086659908294678</v>
       </c>
     </row>
     <row r="197">
@@ -5950,7 +5950,7 @@
         <v>1</v>
       </c>
       <c r="F197" t="n">
-        <v>0.9918648600578308</v>
+        <v>0.8087921142578125</v>
       </c>
     </row>
     <row r="198">
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="F198" t="n">
-        <v>0.9918579459190369</v>
+        <v>0.808821439743042</v>
       </c>
     </row>
     <row r="199">
@@ -6006,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="F199" t="n">
-        <v>0.991878867149353</v>
+        <v>0.8085620403289795</v>
       </c>
     </row>
     <row r="200">
@@ -6027,14 +6027,14 @@
       </c>
       <c r="D200" t="inlineStr">
         <is>
-          <t>SoftwareFault</t>
+          <t>HardwareFault</t>
         </is>
       </c>
       <c r="E200" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>0.942632257938385</v>
+        <v>0.6041601896286011</v>
       </c>
     </row>
     <row r="201">
@@ -6062,7 +6062,7 @@
         <v>1</v>
       </c>
       <c r="F201" t="n">
-        <v>0.9918814301490784</v>
+        <v>0.8085599541664124</v>
       </c>
     </row>
     <row r="202">
@@ -6090,7 +6090,7 @@
         <v>1</v>
       </c>
       <c r="F202" t="n">
-        <v>0.9918845891952515</v>
+        <v>0.8085299134254456</v>
       </c>
     </row>
     <row r="203">
@@ -6118,7 +6118,7 @@
         <v>1</v>
       </c>
       <c r="F203" t="n">
-        <v>0.9918797612190247</v>
+        <v>0.8083222508430481</v>
       </c>
     </row>
     <row r="204">
@@ -6146,7 +6146,7 @@
         <v>1</v>
       </c>
       <c r="F204" t="n">
-        <v>0.944133460521698</v>
+        <v>0.4655083119869232</v>
       </c>
     </row>
     <row r="205">
@@ -6174,7 +6174,7 @@
         <v>1</v>
       </c>
       <c r="F205" t="n">
-        <v>0.9918495416641235</v>
+        <v>0.8088338971138</v>
       </c>
     </row>
     <row r="206">
@@ -6202,7 +6202,7 @@
         <v>1</v>
       </c>
       <c r="F206" t="n">
-        <v>0.9918718934059143</v>
+        <v>0.8085633516311646</v>
       </c>
     </row>
     <row r="207">
@@ -6230,7 +6230,7 @@
         <v>1</v>
       </c>
       <c r="F207" t="n">
-        <v>0.6345075964927673</v>
+        <v>0.3511168658733368</v>
       </c>
     </row>
     <row r="208">
@@ -6258,7 +6258,7 @@
         <v>1</v>
       </c>
       <c r="F208" t="n">
-        <v>0.9918549060821533</v>
+        <v>0.8074555993080139</v>
       </c>
     </row>
     <row r="209">
@@ -6286,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="n">
-        <v>0.5089277625083923</v>
+        <v>0.2470250427722931</v>
       </c>
     </row>
     <row r="210">
@@ -6314,7 +6314,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="n">
-        <v>0.9918810725212097</v>
+        <v>0.8083276152610779</v>
       </c>
     </row>
   </sheetData>
